--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.318968333333333</v>
+        <v>0.021814</v>
       </c>
       <c r="H2">
-        <v>3.956905</v>
+        <v>0.065442</v>
       </c>
       <c r="I2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="J2">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N2">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q2">
-        <v>3.034826548537778</v>
+        <v>0.006612826844</v>
       </c>
       <c r="R2">
-        <v>27.31343893684</v>
+        <v>0.05951544159599999</v>
       </c>
       <c r="S2">
-        <v>0.02150290590079386</v>
+        <v>0.000518466240712741</v>
       </c>
       <c r="T2">
-        <v>0.02150290590079385</v>
+        <v>0.0005184662407127411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.318968333333333</v>
+        <v>0.021814</v>
       </c>
       <c r="H3">
-        <v>3.956905</v>
+        <v>0.065442</v>
       </c>
       <c r="I3">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="J3">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.889365</v>
       </c>
       <c r="O3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q3">
-        <v>22.37382031281389</v>
+        <v>0.3700335360366667</v>
       </c>
       <c r="R3">
-        <v>201.364382815325</v>
+        <v>3.33030182433</v>
       </c>
       <c r="S3">
-        <v>0.1585270674067053</v>
+        <v>0.02901178284150051</v>
       </c>
       <c r="T3">
-        <v>0.1585270674067053</v>
+        <v>0.02901178284150051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.318968333333333</v>
+        <v>0.021814</v>
       </c>
       <c r="H4">
-        <v>3.956905</v>
+        <v>0.065442</v>
       </c>
       <c r="I4">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="J4">
-        <v>0.5693148475898785</v>
+        <v>0.1008129179549036</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N4">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q4">
-        <v>54.94197281367166</v>
+        <v>0.9091815613399999</v>
       </c>
       <c r="R4">
-        <v>494.477755323045</v>
+        <v>8.182634052059999</v>
       </c>
       <c r="S4">
-        <v>0.3892848742823793</v>
+        <v>0.07128266887269037</v>
       </c>
       <c r="T4">
-        <v>0.3892848742823793</v>
+        <v>0.07128266887269037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.9977960000000001</v>
+        <v>0.194567</v>
       </c>
       <c r="H5">
-        <v>2.993388</v>
+        <v>0.583701</v>
       </c>
       <c r="I5">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="J5">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N5">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q5">
-        <v>2.295838129162667</v>
+        <v>0.058982207782</v>
       </c>
       <c r="R5">
-        <v>20.662543162464</v>
+        <v>0.530839870038</v>
       </c>
       <c r="S5">
-        <v>0.01626689053403241</v>
+        <v>0.0046243889729878</v>
       </c>
       <c r="T5">
-        <v>0.01626689053403241</v>
+        <v>0.004624388972987801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.9977960000000001</v>
+        <v>0.194567</v>
       </c>
       <c r="H6">
-        <v>2.993388</v>
+        <v>0.583701</v>
       </c>
       <c r="I6">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="J6">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>50.889365</v>
       </c>
       <c r="O6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q6">
-        <v>16.92573494651333</v>
+        <v>3.300463693318334</v>
       </c>
       <c r="R6">
-        <v>152.33161451862</v>
+        <v>29.704173239865</v>
       </c>
       <c r="S6">
-        <v>0.1199253005190731</v>
+        <v>0.2587666430788589</v>
       </c>
       <c r="T6">
-        <v>0.1199253005190731</v>
+        <v>0.2587666430788589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.9977960000000001</v>
+        <v>0.194567</v>
       </c>
       <c r="H7">
-        <v>2.993388</v>
+        <v>0.583701</v>
       </c>
       <c r="I7">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="J7">
-        <v>0.4306851524101215</v>
+        <v>0.8991870820450963</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N7">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q7">
-        <v>41.563454800348</v>
+        <v>8.109321025270001</v>
       </c>
       <c r="R7">
-        <v>374.071093203132</v>
+        <v>72.98388922743</v>
       </c>
       <c r="S7">
-        <v>0.294492961357016</v>
+        <v>0.6357960499932497</v>
       </c>
       <c r="T7">
-        <v>0.294492961357016</v>
+        <v>0.6357960499932497</v>
       </c>
     </row>
   </sheetData>
